--- a/doc/source/webappvpc/compute.xlsx
+++ b/doc/source/webappvpc/compute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Documents/GitHub/tabular-terraform/webappvpc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C7D9A-2F55-3E4A-9BAC-E560A8CA9FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD54EE-AE24-7D42-801E-40A44843F275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="500" windowWidth="19160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instances" sheetId="27" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
   <si>
     <t>*zone</t>
   </si>
@@ -311,12 +311,6 @@
   </si>
   <si>
     <t>Assign Floating IPs to instance of Bastion Server in zone2</t>
-  </si>
-  <si>
-    <t>data.template_cloudinit_config.cloudinit-webapptier.rendered</t>
-  </si>
-  <si>
-    <t>data.template_cloudinit_config.cloudinit-dbtier.rendered</t>
   </si>
   <si>
     <t>*instance_template</t>
@@ -1503,7 +1497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A31708-3A2C-4ADA-B3E5-8A1B18923F2A}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1524,7 +1520,7 @@
     <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -1605,7 +1601,7 @@
         <v>25</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>80</v>
@@ -1622,7 +1618,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1638,26 +1634,24 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1666,7 +1660,7 @@
         <v>27</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>81</v>
@@ -1683,7 +1677,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -1699,26 +1693,24 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1727,7 +1719,7 @@
         <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>83</v>
@@ -1771,7 +1763,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -1787,26 +1779,24 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1815,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>82</v>
@@ -1832,7 +1822,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1848,26 +1838,24 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1876,7 +1864,7 @@
         <v>26</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>84</v>
@@ -1920,7 +1908,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -1936,16 +1924,16 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1953,14 +1941,14 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>85</v>
@@ -1977,7 +1965,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -1993,16 +1981,16 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2010,14 +1998,14 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>86</v>
@@ -2153,7 +2141,7 @@
         <v>49</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>80</v>
@@ -2288,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>80</v>
@@ -2397,7 +2385,7 @@
         <v>25</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>80</v>
@@ -2418,7 +2406,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2426,7 +2414,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>87</v>
@@ -2447,7 +2435,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2455,7 +2443,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>88</v>
@@ -2490,13 +2478,13 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>89</v>
@@ -2517,13 +2505,13 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>90</v>
@@ -2599,22 +2587,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
@@ -2629,7 +2617,7 @@
         <v>49</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>80</v>
@@ -2743,31 +2731,31 @@
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>80</v>
@@ -2868,25 +2856,25 @@
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>80</v>
@@ -3013,13 +3001,13 @@
         <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>3</v>
@@ -3034,7 +3022,7 @@
         <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>77</v>
@@ -3046,16 +3034,16 @@
         <v>79</v>
       </c>
       <c r="U1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>6</v>

--- a/doc/source/webappvpc/compute.xlsx
+++ b/doc/source/webappvpc/compute.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Documents/GitHub/tabular-terraform/webappvpc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD54EE-AE24-7D42-801E-40A44843F275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C7D9A-2F55-3E4A-9BAC-E560A8CA9FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6260" yWindow="500" windowWidth="19160" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instances" sheetId="27" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="135">
   <si>
     <t>*zone</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Assign Floating IPs to instance of Bastion Server in zone2</t>
+  </si>
+  <si>
+    <t>data.template_cloudinit_config.cloudinit-webapptier.rendered</t>
+  </si>
+  <si>
+    <t>data.template_cloudinit_config.cloudinit-dbtier.rendered</t>
   </si>
   <si>
     <t>*instance_template</t>
@@ -1497,9 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A31708-3A2C-4ADA-B3E5-8A1B18923F2A}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1520,7 +1524,7 @@
     <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -1601,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>80</v>
@@ -1618,7 +1622,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1634,24 +1638,26 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="S2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1660,7 +1666,7 @@
         <v>27</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>81</v>
@@ -1677,7 +1683,7 @@
         <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
@@ -1693,24 +1699,26 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="S3" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -1719,7 +1727,7 @@
         <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>83</v>
@@ -1763,7 +1771,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -1779,24 +1787,26 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="S5" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1805,7 +1815,7 @@
         <v>27</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>82</v>
@@ -1822,7 +1832,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1838,24 +1848,26 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="S6" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1864,7 +1876,7 @@
         <v>26</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>84</v>
@@ -1908,7 +1920,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -1924,16 +1936,16 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1941,14 +1953,14 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>85</v>
@@ -1965,7 +1977,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -1981,16 +1993,16 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1998,14 +2010,14 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>86</v>
@@ -2141,7 +2153,7 @@
         <v>49</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>80</v>
@@ -2276,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>80</v>
@@ -2385,7 +2397,7 @@
         <v>25</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>80</v>
@@ -2406,7 +2418,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2414,7 +2426,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>87</v>
@@ -2435,7 +2447,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2443,7 +2455,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>88</v>
@@ -2478,13 +2490,13 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>89</v>
@@ -2505,13 +2517,13 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>90</v>
@@ -2587,22 +2599,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>5</v>
@@ -2617,7 +2629,7 @@
         <v>49</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>80</v>
@@ -2731,31 +2743,31 @@
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>80</v>
@@ -2856,25 +2868,25 @@
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>80</v>
@@ -3001,13 +3013,13 @@
         <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>3</v>
@@ -3022,7 +3034,7 @@
         <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>77</v>
@@ -3034,16 +3046,16 @@
         <v>79</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>6</v>
